--- a/APP/uae.xlsx
+++ b/APP/uae.xlsx
@@ -11318,8 +11318,12 @@
     </row>
     <row r="4">
       <c r="A4" s="133"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="144"/>
+      <c r="B4" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>92</v>
+      </c>
       <c r="D4" s="135"/>
       <c r="E4" s="135"/>
       <c r="F4" s="135"/>
@@ -11337,18 +11341,18 @@
     </row>
     <row r="5">
       <c r="A5" s="133"/>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="149" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="135"/>
       <c r="E5" s="135"/>
       <c r="F5" s="135"/>
       <c r="G5" s="78"/>
       <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+      <c r="I5" s="135"/>
       <c r="J5" s="135"/>
       <c r="K5" s="135"/>
       <c r="L5" s="135"/>
@@ -11360,16 +11364,16 @@
     </row>
     <row r="6">
       <c r="A6" s="133"/>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="74" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="144" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="135"/>
       <c r="E6" s="135"/>
       <c r="F6" s="135"/>
-      <c r="G6" s="78"/>
+      <c r="G6" s="135"/>
       <c r="H6" s="135"/>
       <c r="I6" s="135"/>
       <c r="J6" s="135"/>
@@ -11383,16 +11387,16 @@
     </row>
     <row r="7">
       <c r="A7" s="133"/>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="149" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="144" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" s="135"/>
       <c r="E7" s="135"/>
       <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="135"/>
       <c r="I7" s="135"/>
       <c r="J7" s="135"/>
@@ -11410,7 +11414,7 @@
         <v>89</v>
       </c>
       <c r="C8" s="144" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="135"/>
       <c r="E8" s="135"/>
@@ -11433,12 +11437,12 @@
         <v>89</v>
       </c>
       <c r="C9" s="144" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="135"/>
       <c r="E9" s="135"/>
       <c r="F9" s="135"/>
-      <c r="G9" s="78"/>
+      <c r="G9" s="135"/>
       <c r="H9" s="135"/>
       <c r="I9" s="135"/>
       <c r="J9" s="135"/>
@@ -11456,12 +11460,12 @@
         <v>89</v>
       </c>
       <c r="C10" s="144" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" s="135"/>
       <c r="E10" s="135"/>
       <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
+      <c r="G10" s="78"/>
       <c r="H10" s="135"/>
       <c r="I10" s="135"/>
       <c r="J10" s="135"/>
@@ -11479,7 +11483,7 @@
         <v>89</v>
       </c>
       <c r="C11" s="144" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" s="135"/>
       <c r="E11" s="135"/>
@@ -11502,12 +11506,12 @@
         <v>89</v>
       </c>
       <c r="C12" s="144" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="135"/>
       <c r="E12" s="135"/>
       <c r="F12" s="135"/>
-      <c r="G12" s="78"/>
+      <c r="G12" s="135"/>
       <c r="H12" s="135"/>
       <c r="I12" s="135"/>
       <c r="J12" s="135"/>
@@ -11521,16 +11525,16 @@
     </row>
     <row r="13">
       <c r="A13" s="133"/>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="74" t="s">
         <v>89</v>
       </c>
       <c r="C13" s="144" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="135"/>
       <c r="E13" s="135"/>
       <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="135"/>
       <c r="I13" s="135"/>
       <c r="J13" s="135"/>
@@ -11548,7 +11552,7 @@
         <v>89</v>
       </c>
       <c r="C14" s="144" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="135"/>
       <c r="E14" s="135"/>
@@ -11571,18 +11575,18 @@
         <v>89</v>
       </c>
       <c r="C15" s="144" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" s="135"/>
       <c r="E15" s="135"/>
       <c r="F15" s="135"/>
-      <c r="G15" s="78"/>
+      <c r="G15" s="135"/>
       <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
+      <c r="I15" s="78"/>
       <c r="J15" s="135"/>
       <c r="K15" s="135"/>
       <c r="L15" s="135"/>
-      <c r="M15" s="148"/>
+      <c r="M15" s="135"/>
       <c r="N15" s="135"/>
       <c r="O15" s="135"/>
       <c r="P15" s="139"/>
@@ -11594,14 +11598,14 @@
         <v>89</v>
       </c>
       <c r="C16" s="144" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" s="135"/>
       <c r="E16" s="135"/>
       <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="135"/>
-      <c r="I16" s="78"/>
+      <c r="I16" s="150"/>
       <c r="J16" s="135"/>
       <c r="K16" s="135"/>
       <c r="L16" s="135"/>
@@ -11613,18 +11617,18 @@
     </row>
     <row r="17">
       <c r="A17" s="133"/>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="151" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="144" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" s="135"/>
       <c r="E17" s="135"/>
       <c r="F17" s="135"/>
       <c r="G17" s="78"/>
       <c r="H17" s="135"/>
-      <c r="I17" s="150"/>
+      <c r="I17" s="152"/>
       <c r="J17" s="135"/>
       <c r="K17" s="135"/>
       <c r="L17" s="135"/>
@@ -11640,14 +11644,14 @@
         <v>89</v>
       </c>
       <c r="C18" s="144" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D18" s="135"/>
       <c r="E18" s="135"/>
       <c r="F18" s="135"/>
-      <c r="G18" s="78"/>
+      <c r="G18" s="135"/>
       <c r="H18" s="135"/>
-      <c r="I18" s="152"/>
+      <c r="I18" s="135"/>
       <c r="J18" s="135"/>
       <c r="K18" s="135"/>
       <c r="L18" s="135"/>
@@ -11660,10 +11664,10 @@
     <row r="19">
       <c r="A19" s="133"/>
       <c r="B19" s="151" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C19" s="144" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D19" s="135"/>
       <c r="E19" s="135"/>
@@ -11686,7 +11690,7 @@
         <v>107</v>
       </c>
       <c r="C20" s="144" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" s="135"/>
       <c r="E20" s="135"/>
@@ -11709,7 +11713,7 @@
         <v>107</v>
       </c>
       <c r="C21" s="144" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" s="135"/>
       <c r="E21" s="135"/>
@@ -11732,7 +11736,7 @@
         <v>107</v>
       </c>
       <c r="C22" s="144" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" s="135"/>
       <c r="E22" s="135"/>
@@ -11755,7 +11759,7 @@
         <v>107</v>
       </c>
       <c r="C23" s="144" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" s="135"/>
       <c r="E23" s="135"/>
@@ -11774,13 +11778,15 @@
     </row>
     <row r="24">
       <c r="A24" s="133"/>
-      <c r="B24" s="151" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="144" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="135"/>
+      <c r="B24" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="154" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>115</v>
+      </c>
       <c r="E24" s="135"/>
       <c r="F24" s="135"/>
       <c r="G24" s="135"/>
@@ -11797,11 +11803,11 @@
     </row>
     <row r="25">
       <c r="A25" s="133"/>
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="154" t="s">
-        <v>114</v>
+      <c r="C25" s="144" t="s">
+        <v>116</v>
       </c>
       <c r="D25" s="78" t="s">
         <v>115</v>
@@ -11826,7 +11832,7 @@
         <v>113</v>
       </c>
       <c r="C26" s="144" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" s="78" t="s">
         <v>115</v>
@@ -11848,14 +11854,12 @@
     <row r="27">
       <c r="A27" s="133"/>
       <c r="B27" s="151" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C27" s="144" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="78" t="s">
-        <v>115</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D27" s="135"/>
       <c r="E27" s="135"/>
       <c r="F27" s="135"/>
       <c r="G27" s="135"/>
@@ -11876,14 +11880,14 @@
         <v>118</v>
       </c>
       <c r="C28" s="144" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D28" s="135"/>
       <c r="E28" s="135"/>
       <c r="F28" s="135"/>
       <c r="G28" s="135"/>
       <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
+      <c r="I28" s="78"/>
       <c r="J28" s="135"/>
       <c r="K28" s="135"/>
       <c r="L28" s="135"/>
@@ -11899,7 +11903,7 @@
         <v>118</v>
       </c>
       <c r="C29" s="144" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D29" s="135"/>
       <c r="E29" s="135"/>
@@ -11922,7 +11926,7 @@
         <v>118</v>
       </c>
       <c r="C30" s="144" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D30" s="135"/>
       <c r="E30" s="135"/>
@@ -11945,14 +11949,14 @@
         <v>118</v>
       </c>
       <c r="C31" s="144" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="156"/>
       <c r="G31" s="135"/>
       <c r="H31" s="135"/>
-      <c r="I31" s="78"/>
+      <c r="I31" s="135"/>
       <c r="J31" s="135"/>
       <c r="K31" s="135"/>
       <c r="L31" s="135"/>
@@ -11968,11 +11972,11 @@
         <v>118</v>
       </c>
       <c r="C32" s="144" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="156"/>
+        <v>120</v>
+      </c>
+      <c r="D32" s="78"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
       <c r="G32" s="135"/>
       <c r="H32" s="135"/>
       <c r="I32" s="135"/>
@@ -11987,13 +11991,15 @@
     </row>
     <row r="33">
       <c r="A33" s="133"/>
-      <c r="B33" s="151" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="144" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="78"/>
+      <c r="B33" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="78" t="s">
+        <v>122</v>
+      </c>
       <c r="E33" s="135"/>
       <c r="F33" s="135"/>
       <c r="G33" s="135"/>
@@ -12010,11 +12016,11 @@
     </row>
     <row r="34">
       <c r="A34" s="133"/>
-      <c r="B34" s="153" t="s">
+      <c r="B34" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="157" t="s">
-        <v>121</v>
+      <c r="C34" s="144" t="s">
+        <v>123</v>
       </c>
       <c r="D34" s="78" t="s">
         <v>122</v>
@@ -12039,7 +12045,7 @@
         <v>113</v>
       </c>
       <c r="C35" s="144" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D35" s="78" t="s">
         <v>122</v>
@@ -12061,13 +12067,13 @@
     <row r="36">
       <c r="A36" s="133"/>
       <c r="B36" s="151" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C36" s="144" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E36" s="135"/>
       <c r="F36" s="135"/>
@@ -12089,11 +12095,9 @@
         <v>125</v>
       </c>
       <c r="C37" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="78" t="s">
-        <v>127</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D37" s="135"/>
       <c r="E37" s="135"/>
       <c r="F37" s="135"/>
       <c r="G37" s="135"/>
@@ -12114,19 +12118,19 @@
         <v>125</v>
       </c>
       <c r="C38" s="144" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D38" s="135"/>
       <c r="E38" s="135"/>
       <c r="F38" s="135"/>
       <c r="G38" s="135"/>
       <c r="H38" s="135"/>
-      <c r="I38" s="135"/>
-      <c r="J38" s="135"/>
-      <c r="K38" s="135"/>
-      <c r="L38" s="135"/>
-      <c r="M38" s="135"/>
-      <c r="N38" s="135"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="160"/>
+      <c r="L38" s="159"/>
+      <c r="M38" s="159"/>
+      <c r="N38" s="159"/>
       <c r="O38" s="135"/>
       <c r="P38" s="139"/>
       <c r="Q38" s="133"/>
@@ -12137,21 +12141,21 @@
         <v>125</v>
       </c>
       <c r="C39" s="144" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D39" s="135"/>
       <c r="E39" s="135"/>
       <c r="F39" s="135"/>
       <c r="G39" s="135"/>
       <c r="H39" s="135"/>
-      <c r="I39" s="158"/>
+      <c r="I39" s="160"/>
       <c r="J39" s="159"/>
-      <c r="K39" s="160"/>
+      <c r="K39" s="159"/>
       <c r="L39" s="159"/>
       <c r="M39" s="159"/>
       <c r="N39" s="159"/>
       <c r="O39" s="135"/>
-      <c r="P39" s="139"/>
+      <c r="P39" s="161"/>
       <c r="Q39" s="133"/>
     </row>
     <row r="40">
@@ -12160,7 +12164,7 @@
         <v>125</v>
       </c>
       <c r="C40" s="144" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D40" s="135"/>
       <c r="E40" s="135"/>
@@ -12179,11 +12183,11 @@
     </row>
     <row r="41">
       <c r="A41" s="133"/>
-      <c r="B41" s="151" t="s">
+      <c r="B41" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="144" t="s">
-        <v>131</v>
+      <c r="C41" s="154" t="s">
+        <v>132</v>
       </c>
       <c r="D41" s="135"/>
       <c r="E41" s="135"/>
@@ -12202,15 +12206,15 @@
     </row>
     <row r="42">
       <c r="A42" s="133"/>
-      <c r="B42" s="153" t="s">
+      <c r="B42" s="151" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="154" t="s">
-        <v>132</v>
+      <c r="C42" s="144" t="s">
+        <v>133</v>
       </c>
       <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="162"/>
       <c r="G42" s="135"/>
       <c r="H42" s="135"/>
       <c r="I42" s="160"/>
@@ -12229,44 +12233,43 @@
         <v>125</v>
       </c>
       <c r="C43" s="144" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="135"/>
-      <c r="E43" s="155"/>
-      <c r="F43" s="162"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
       <c r="G43" s="135"/>
       <c r="H43" s="135"/>
-      <c r="I43" s="160"/>
+      <c r="I43" s="148"/>
       <c r="J43" s="159"/>
       <c r="K43" s="159"/>
       <c r="L43" s="159"/>
       <c r="M43" s="159"/>
       <c r="N43" s="159"/>
       <c r="O43" s="135"/>
-      <c r="P43" s="161"/>
-      <c r="Q43" s="133"/>
+      <c r="Q43" s="161"/>
     </row>
     <row r="44">
       <c r="A44" s="133"/>
       <c r="B44" s="151" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C44" s="144" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="135"/>
       <c r="E44" s="135"/>
       <c r="F44" s="135"/>
       <c r="G44" s="135"/>
       <c r="H44" s="135"/>
-      <c r="I44" s="148"/>
+      <c r="I44" s="163"/>
       <c r="J44" s="159"/>
       <c r="K44" s="159"/>
       <c r="L44" s="159"/>
       <c r="M44" s="159"/>
       <c r="N44" s="159"/>
       <c r="O44" s="135"/>
-      <c r="Q44" s="161"/>
+      <c r="Q44" s="164"/>
     </row>
     <row r="45">
       <c r="A45" s="133"/>
@@ -12274,15 +12277,15 @@
         <v>135</v>
       </c>
       <c r="C45" s="144" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="135"/>
       <c r="E45" s="135"/>
       <c r="F45" s="135"/>
       <c r="G45" s="135"/>
       <c r="H45" s="135"/>
-      <c r="I45" s="163"/>
-      <c r="J45" s="159"/>
+      <c r="I45" s="160"/>
+      <c r="J45" s="160"/>
       <c r="K45" s="159"/>
       <c r="L45" s="159"/>
       <c r="M45" s="159"/>
@@ -12296,15 +12299,15 @@
         <v>135</v>
       </c>
       <c r="C46" s="144" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="135"/>
       <c r="E46" s="135"/>
       <c r="F46" s="135"/>
       <c r="G46" s="135"/>
       <c r="H46" s="135"/>
-      <c r="I46" s="160"/>
-      <c r="J46" s="160"/>
+      <c r="I46" s="159"/>
+      <c r="J46" s="159"/>
       <c r="K46" s="159"/>
       <c r="L46" s="159"/>
       <c r="M46" s="159"/>
@@ -12315,10 +12318,10 @@
     <row r="47">
       <c r="A47" s="133"/>
       <c r="B47" s="151" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C47" s="144" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="135"/>
       <c r="E47" s="135"/>
@@ -12336,20 +12339,20 @@
     </row>
     <row r="48">
       <c r="A48" s="133"/>
-      <c r="B48" s="151" t="s">
+      <c r="B48" s="74" t="s">
         <v>139</v>
       </c>
       <c r="C48" s="144" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="135"/>
       <c r="E48" s="135"/>
       <c r="F48" s="135"/>
       <c r="G48" s="135"/>
       <c r="H48" s="135"/>
-      <c r="I48" s="159"/>
+      <c r="I48" s="165"/>
       <c r="J48" s="159"/>
-      <c r="K48" s="159"/>
+      <c r="K48" s="160"/>
       <c r="L48" s="159"/>
       <c r="M48" s="159"/>
       <c r="N48" s="159"/>
@@ -12358,22 +12361,22 @@
     </row>
     <row r="49">
       <c r="A49" s="133"/>
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="166" t="s">
         <v>139</v>
       </c>
       <c r="C49" s="144" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="135"/>
       <c r="E49" s="135"/>
       <c r="F49" s="135"/>
       <c r="G49" s="135"/>
       <c r="H49" s="135"/>
-      <c r="I49" s="165"/>
+      <c r="I49" s="160"/>
       <c r="J49" s="159"/>
       <c r="K49" s="160"/>
       <c r="L49" s="159"/>
-      <c r="M49" s="159"/>
+      <c r="M49" s="167"/>
       <c r="N49" s="159"/>
       <c r="O49" s="135"/>
       <c r="Q49" s="164"/>
@@ -12384,7 +12387,7 @@
         <v>139</v>
       </c>
       <c r="C50" s="144" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D50" s="135"/>
       <c r="E50" s="135"/>
@@ -12406,7 +12409,7 @@
         <v>139</v>
       </c>
       <c r="C51" s="144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D51" s="135"/>
       <c r="E51" s="135"/>
@@ -12428,7 +12431,7 @@
         <v>139</v>
       </c>
       <c r="C52" s="144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D52" s="135"/>
       <c r="E52" s="135"/>
@@ -12450,11 +12453,11 @@
         <v>139</v>
       </c>
       <c r="C53" s="144" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D53" s="135"/>
       <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
+      <c r="F53" s="168"/>
       <c r="G53" s="135"/>
       <c r="H53" s="135"/>
       <c r="I53" s="160"/>
@@ -12472,7 +12475,7 @@
         <v>139</v>
       </c>
       <c r="C54" s="144" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D54" s="135"/>
       <c r="E54" s="135"/>
@@ -12494,7 +12497,7 @@
         <v>139</v>
       </c>
       <c r="C55" s="144" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D55" s="135"/>
       <c r="E55" s="135"/>
@@ -12516,7 +12519,7 @@
         <v>139</v>
       </c>
       <c r="C56" s="144" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D56" s="135"/>
       <c r="E56" s="135"/>
@@ -12538,11 +12541,11 @@
         <v>139</v>
       </c>
       <c r="C57" s="144" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D57" s="135"/>
       <c r="E57" s="135"/>
-      <c r="F57" s="168"/>
+      <c r="F57" s="135"/>
       <c r="G57" s="135"/>
       <c r="H57" s="135"/>
       <c r="I57" s="160"/>
@@ -12560,7 +12563,7 @@
         <v>139</v>
       </c>
       <c r="C58" s="144" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D58" s="135"/>
       <c r="E58" s="135"/>
@@ -12582,7 +12585,7 @@
         <v>139</v>
       </c>
       <c r="C59" s="144" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D59" s="135"/>
       <c r="E59" s="135"/>
@@ -12600,14 +12603,18 @@
     </row>
     <row r="60">
       <c r="A60" s="133"/>
-      <c r="B60" s="166" t="s">
+      <c r="B60" s="74" t="s">
         <v>139</v>
       </c>
       <c r="C60" s="144" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" s="135"/>
-      <c r="E60" s="135"/>
+        <v>91</v>
+      </c>
+      <c r="D60" s="169" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="170" t="s">
+        <v>153</v>
+      </c>
       <c r="F60" s="135"/>
       <c r="G60" s="135"/>
       <c r="H60" s="135"/>
@@ -12622,18 +12629,14 @@
     </row>
     <row r="61">
       <c r="A61" s="133"/>
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="C61" s="144" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="169" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" s="170" t="s">
-        <v>153</v>
-      </c>
+      <c r="C61" s="172" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="173"/>
+      <c r="E61" s="174"/>
       <c r="F61" s="135"/>
       <c r="G61" s="135"/>
       <c r="H61" s="135"/>
@@ -12648,14 +12651,14 @@
     </row>
     <row r="62">
       <c r="A62" s="133"/>
-      <c r="B62" s="171" t="s">
+      <c r="B62" s="166" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="172" t="s">
-        <v>154</v>
-      </c>
-      <c r="D62" s="173"/>
-      <c r="E62" s="174"/>
+      <c r="C62" s="144" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="135"/>
+      <c r="E62" s="135"/>
       <c r="F62" s="135"/>
       <c r="G62" s="135"/>
       <c r="H62" s="135"/>
@@ -12673,8 +12676,8 @@
       <c r="B63" s="166" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="144" t="s">
-        <v>155</v>
+      <c r="C63" s="172" t="s">
+        <v>153</v>
       </c>
       <c r="D63" s="135"/>
       <c r="E63" s="135"/>
@@ -12692,11 +12695,11 @@
     </row>
     <row r="64">
       <c r="A64" s="133"/>
-      <c r="B64" s="166" t="s">
+      <c r="B64" s="171" t="s">
         <v>139</v>
       </c>
       <c r="C64" s="172" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D64" s="135"/>
       <c r="E64" s="135"/>
@@ -12714,12 +12717,8 @@
     </row>
     <row r="65">
       <c r="A65" s="133"/>
-      <c r="B65" s="171" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="172" t="s">
-        <v>156</v>
-      </c>
+      <c r="B65" s="166"/>
+      <c r="C65" s="144"/>
       <c r="D65" s="135"/>
       <c r="E65" s="135"/>
       <c r="F65" s="135"/>
@@ -12736,8 +12735,12 @@
     </row>
     <row r="66">
       <c r="A66" s="133"/>
-      <c r="B66" s="166"/>
-      <c r="C66" s="144"/>
+      <c r="B66" s="151" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="144" t="s">
+        <v>158</v>
+      </c>
       <c r="D66" s="135"/>
       <c r="E66" s="135"/>
       <c r="F66" s="135"/>
@@ -12754,19 +12757,15 @@
     </row>
     <row r="67">
       <c r="A67" s="133"/>
-      <c r="B67" s="151" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" s="144" t="s">
-        <v>158</v>
-      </c>
+      <c r="B67" s="175"/>
+      <c r="C67" s="176"/>
       <c r="D67" s="135"/>
       <c r="E67" s="135"/>
       <c r="F67" s="135"/>
       <c r="G67" s="135"/>
       <c r="H67" s="135"/>
-      <c r="I67" s="160"/>
-      <c r="J67" s="159"/>
+      <c r="I67" s="159"/>
+      <c r="J67" s="177"/>
       <c r="K67" s="160"/>
       <c r="L67" s="159"/>
       <c r="M67" s="167"/>
@@ -12784,10 +12783,10 @@
       <c r="G68" s="135"/>
       <c r="H68" s="135"/>
       <c r="I68" s="159"/>
-      <c r="J68" s="177"/>
-      <c r="K68" s="160"/>
+      <c r="J68" s="159"/>
+      <c r="K68" s="159"/>
       <c r="L68" s="159"/>
-      <c r="M68" s="167"/>
+      <c r="M68" s="159"/>
       <c r="N68" s="159"/>
       <c r="O68" s="135"/>
       <c r="Q68" s="164"/>
@@ -12796,38 +12795,28 @@
       <c r="A69" s="133"/>
       <c r="B69" s="175"/>
       <c r="C69" s="176"/>
-      <c r="D69" s="135"/>
-      <c r="E69" s="135"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="135"/>
-      <c r="I69" s="159"/>
-      <c r="J69" s="159"/>
-      <c r="K69" s="159"/>
-      <c r="L69" s="159"/>
-      <c r="M69" s="159"/>
-      <c r="N69" s="159"/>
-      <c r="O69" s="135"/>
-      <c r="Q69" s="164"/>
+      <c r="D69" s="178"/>
+      <c r="E69" s="178"/>
+      <c r="F69" s="178"/>
+      <c r="G69" s="178"/>
+      <c r="H69" s="178"/>
+      <c r="I69" s="179" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="180"/>
+      <c r="K69" s="180"/>
+      <c r="L69" s="180"/>
+      <c r="M69" s="181"/>
+      <c r="N69" s="180"/>
+      <c r="O69" s="178"/>
     </row>
     <row r="70">
-      <c r="A70" s="133"/>
-      <c r="B70" s="175"/>
-      <c r="C70" s="176"/>
-      <c r="D70" s="178"/>
-      <c r="E70" s="178"/>
-      <c r="F70" s="178"/>
-      <c r="G70" s="178"/>
-      <c r="H70" s="178"/>
-      <c r="I70" s="179" t="s">
-        <v>27</v>
-      </c>
+      <c r="I70" s="180"/>
       <c r="J70" s="180"/>
       <c r="K70" s="180"/>
       <c r="L70" s="180"/>
-      <c r="M70" s="181"/>
+      <c r="M70" s="180"/>
       <c r="N70" s="180"/>
-      <c r="O70" s="178"/>
     </row>
     <row r="71">
       <c r="I71" s="180"/>
@@ -12838,516 +12827,537 @@
       <c r="N71" s="180"/>
     </row>
     <row r="72">
-      <c r="I72" s="180"/>
-      <c r="J72" s="180"/>
-      <c r="K72" s="180"/>
-      <c r="L72" s="180"/>
-      <c r="M72" s="180"/>
-      <c r="N72" s="180"/>
-    </row>
-    <row r="73">
-      <c r="B73" s="61" t="s">
+      <c r="B72" s="61" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="61" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="61" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="61" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="I79" s="61" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="D80" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="I80" s="61" t="s">
-        <v>164</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D80" s="61"/>
+      <c r="I80" s="61"/>
     </row>
     <row r="81">
-      <c r="B81" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81" s="61"/>
-      <c r="I81" s="61"/>
+      <c r="B81" s="116" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="82">
       <c r="B82" s="116" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" s="116" t="s">
         <v>167</v>
       </c>
     </row>
+    <row r="86">
+      <c r="B86" s="119" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="87">
-      <c r="B87" s="119" t="s">
-        <v>168</v>
-      </c>
+      <c r="B87" s="182"/>
     </row>
     <row r="88">
-      <c r="B88" s="182"/>
+      <c r="B88" s="183" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="89">
       <c r="B89" s="183" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="183" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91">
-      <c r="B91" s="183" t="s">
-        <v>171</v>
-      </c>
+      <c r="B91" s="182"/>
     </row>
     <row r="92">
-      <c r="B92" s="182"/>
-    </row>
-    <row r="93">
-      <c r="B93" s="184" t="s">
+      <c r="B92" s="184" t="s">
         <v>172</v>
       </c>
     </row>
+    <row r="94">
+      <c r="B94" s="185" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="95">
-      <c r="B95" s="185" t="s">
-        <v>173</v>
-      </c>
+      <c r="B95" s="186"/>
     </row>
     <row r="96">
-      <c r="B96" s="186"/>
+      <c r="B96" s="187" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="97">
       <c r="B97" s="187" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="187" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" s="187" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="188" t="s">
+    <row r="102">
+      <c r="A102" s="188" t="s">
         <v>177</v>
       </c>
-      <c r="B103" s="189"/>
-      <c r="C103" s="189"/>
-      <c r="D103" s="189"/>
-      <c r="E103" s="189"/>
-      <c r="F103" s="189"/>
-      <c r="G103" s="189"/>
-      <c r="H103" s="189"/>
-      <c r="I103" s="189"/>
-      <c r="J103" s="189"/>
-      <c r="K103" s="189"/>
-      <c r="L103" s="189"/>
-      <c r="M103" s="189"/>
-      <c r="N103" s="189"/>
-      <c r="O103" s="189"/>
+      <c r="B102" s="189"/>
+      <c r="C102" s="189"/>
+      <c r="D102" s="189"/>
+      <c r="E102" s="189"/>
+      <c r="F102" s="189"/>
+      <c r="G102" s="189"/>
+      <c r="H102" s="189"/>
+      <c r="I102" s="189"/>
+      <c r="J102" s="189"/>
+      <c r="K102" s="189"/>
+      <c r="L102" s="189"/>
+      <c r="M102" s="189"/>
+      <c r="N102" s="189"/>
+      <c r="O102" s="189"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I104" s="64"/>
+      <c r="J104" s="66"/>
+      <c r="K104" s="66"/>
+      <c r="L104" s="67"/>
+      <c r="M104" s="66"/>
+      <c r="N104" s="66"/>
+      <c r="O104" s="68"/>
+      <c r="P104" s="68"/>
+      <c r="Q104" s="68"/>
+      <c r="R104" s="68"/>
+      <c r="S104" s="68"/>
+      <c r="T104" s="68"/>
+      <c r="U104" s="68"/>
+      <c r="V104" s="68"/>
+      <c r="W104" s="68"/>
+      <c r="X104" s="69"/>
     </row>
     <row r="105">
-      <c r="A105" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="F105" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="G105" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="H105" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="I105" s="64"/>
-      <c r="J105" s="66"/>
-      <c r="K105" s="66"/>
-      <c r="L105" s="67"/>
-      <c r="M105" s="66"/>
-      <c r="N105" s="66"/>
-      <c r="O105" s="68"/>
-      <c r="P105" s="68"/>
-      <c r="Q105" s="68"/>
-      <c r="R105" s="68"/>
-      <c r="S105" s="68"/>
-      <c r="T105" s="68"/>
-      <c r="U105" s="68"/>
-      <c r="V105" s="68"/>
-      <c r="W105" s="68"/>
-      <c r="X105" s="69"/>
+      <c r="A105" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="190" t="s">
+        <v>178</v>
+      </c>
+      <c r="E105" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="F105" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="71"/>
+      <c r="I105" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="77"/>
+      <c r="N105" s="77"/>
+      <c r="O105" s="78"/>
+      <c r="P105" s="78"/>
+      <c r="Q105" s="78"/>
+      <c r="R105" s="78"/>
+      <c r="S105" s="78"/>
+      <c r="T105" s="78"/>
+      <c r="U105" s="78"/>
+      <c r="V105" s="78"/>
+      <c r="W105" s="78"/>
+      <c r="X105" s="79"/>
     </row>
     <row r="106">
-      <c r="A106" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="190" t="s">
-        <v>178</v>
-      </c>
-      <c r="E106" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="F106" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="75" t="s">
+      <c r="A106" s="80"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="81"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H106" s="71"/>
-      <c r="I106" s="76" t="s">
-        <v>16</v>
-      </c>
+      <c r="H106" s="82"/>
+      <c r="I106" s="83"/>
       <c r="J106" s="77"/>
       <c r="K106" s="77"/>
       <c r="L106" s="77"/>
       <c r="M106" s="77"/>
       <c r="N106" s="77"/>
-      <c r="O106" s="78"/>
-      <c r="P106" s="78"/>
-      <c r="Q106" s="78"/>
-      <c r="R106" s="78"/>
-      <c r="S106" s="78"/>
-      <c r="T106" s="78"/>
-      <c r="U106" s="78"/>
-      <c r="V106" s="78"/>
-      <c r="W106" s="78"/>
-      <c r="X106" s="79"/>
+      <c r="O106" s="84"/>
+      <c r="P106" s="84"/>
+      <c r="Q106" s="84"/>
+      <c r="R106" s="84"/>
+      <c r="S106" s="84"/>
+      <c r="T106" s="84"/>
+      <c r="U106" s="84"/>
+      <c r="V106" s="84"/>
+      <c r="W106" s="84"/>
+      <c r="X106" s="85"/>
     </row>
     <row r="107">
       <c r="A107" s="80"/>
-      <c r="B107" s="81"/>
-      <c r="C107" s="81"/>
-      <c r="D107" s="81"/>
-      <c r="E107" s="81"/>
-      <c r="F107" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="82"/>
-      <c r="I107" s="83"/>
+      <c r="B107" s="86"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="86"/>
+      <c r="E107" s="86"/>
+      <c r="F107" s="86"/>
+      <c r="G107" s="81"/>
+      <c r="H107" s="81"/>
+      <c r="I107" s="87"/>
       <c r="J107" s="77"/>
       <c r="K107" s="77"/>
       <c r="L107" s="77"/>
       <c r="M107" s="77"/>
       <c r="N107" s="77"/>
-      <c r="O107" s="84"/>
-      <c r="P107" s="84"/>
-      <c r="Q107" s="84"/>
-      <c r="R107" s="84"/>
-      <c r="S107" s="84"/>
-      <c r="T107" s="84"/>
-      <c r="U107" s="84"/>
-      <c r="V107" s="84"/>
-      <c r="W107" s="84"/>
-      <c r="X107" s="85"/>
+      <c r="O107" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="P107" s="89"/>
+      <c r="Q107" s="89"/>
+      <c r="R107" s="89"/>
+      <c r="S107" s="89"/>
+      <c r="T107" s="89"/>
+      <c r="U107" s="89"/>
+      <c r="V107" s="90"/>
+      <c r="W107" s="90"/>
+      <c r="X107" s="191"/>
     </row>
     <row r="108">
       <c r="A108" s="80"/>
-      <c r="B108" s="86"/>
-      <c r="C108" s="86"/>
-      <c r="D108" s="86"/>
-      <c r="E108" s="86"/>
-      <c r="F108" s="86"/>
-      <c r="G108" s="81"/>
-      <c r="H108" s="81"/>
-      <c r="I108" s="87"/>
+      <c r="B108" s="92"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="92"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="93"/>
+      <c r="H108" s="93"/>
+      <c r="I108" s="94"/>
       <c r="J108" s="77"/>
       <c r="K108" s="77"/>
       <c r="L108" s="77"/>
       <c r="M108" s="77"/>
       <c r="N108" s="77"/>
-      <c r="O108" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="P108" s="89"/>
-      <c r="Q108" s="89"/>
-      <c r="R108" s="89"/>
-      <c r="S108" s="89"/>
-      <c r="T108" s="89"/>
-      <c r="U108" s="89"/>
-      <c r="V108" s="90"/>
-      <c r="W108" s="90"/>
-      <c r="X108" s="191"/>
+      <c r="O108" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="P108" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q108" s="192"/>
+      <c r="R108" s="96"/>
+      <c r="S108" s="98"/>
+      <c r="T108" s="98"/>
+      <c r="U108" s="98"/>
+      <c r="V108" s="98"/>
+      <c r="W108" s="98"/>
+      <c r="X108" s="193"/>
     </row>
     <row r="109">
-      <c r="A109" s="80"/>
-      <c r="B109" s="92"/>
-      <c r="C109" s="92"/>
-      <c r="D109" s="92"/>
-      <c r="E109" s="92"/>
-      <c r="F109" s="92"/>
-      <c r="G109" s="93"/>
-      <c r="H109" s="93"/>
-      <c r="I109" s="94"/>
-      <c r="J109" s="77"/>
-      <c r="K109" s="77"/>
-      <c r="L109" s="77"/>
-      <c r="M109" s="77"/>
-      <c r="N109" s="77"/>
-      <c r="O109" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="P109" s="96" t="s">
+      <c r="A109" s="100"/>
+      <c r="B109" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="I109" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="J109" s="106"/>
+      <c r="K109" s="106"/>
+      <c r="L109" s="106"/>
+      <c r="M109" s="106"/>
+      <c r="N109" s="107"/>
+      <c r="O109" s="194" t="s">
+        <v>183</v>
+      </c>
+      <c r="P109" s="195"/>
+      <c r="Q109" s="196"/>
+      <c r="R109" s="197"/>
+      <c r="S109" s="197"/>
+      <c r="T109" s="197"/>
+      <c r="U109" s="197"/>
+      <c r="V109" s="197"/>
+      <c r="W109" s="197"/>
+      <c r="X109" s="198"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="113"/>
+      <c r="B110" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" s="115"/>
+      <c r="D110" s="115"/>
+      <c r="E110" s="115"/>
+      <c r="F110" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="G110" s="115"/>
+      <c r="H110" s="115"/>
+      <c r="I110" s="116" t="s">
+        <v>185</v>
+      </c>
+      <c r="J110" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110" s="77"/>
+      <c r="L110" s="77"/>
+      <c r="M110" s="77"/>
+      <c r="N110" s="77"/>
+      <c r="O110" s="118"/>
+      <c r="X110" s="120"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="Q109" s="192"/>
-      <c r="R109" s="96"/>
-      <c r="S109" s="98"/>
-      <c r="T109" s="98"/>
-      <c r="U109" s="98"/>
-      <c r="V109" s="98"/>
-      <c r="W109" s="98"/>
-      <c r="X109" s="193"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="100"/>
-      <c r="B110" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="C110" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="D110" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="F110" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="H110" s="102" t="s">
-        <v>182</v>
-      </c>
-      <c r="I110" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="J110" s="106"/>
-      <c r="K110" s="106"/>
-      <c r="L110" s="106"/>
-      <c r="M110" s="106"/>
-      <c r="N110" s="107"/>
-      <c r="O110" s="194" t="s">
-        <v>183</v>
-      </c>
-      <c r="P110" s="195"/>
-      <c r="Q110" s="196"/>
-      <c r="R110" s="197"/>
-      <c r="S110" s="197"/>
-      <c r="T110" s="197"/>
-      <c r="U110" s="197"/>
-      <c r="V110" s="197"/>
-      <c r="W110" s="197"/>
-      <c r="X110" s="198"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="113"/>
-      <c r="B111" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="C111" s="115"/>
-      <c r="D111" s="115"/>
-      <c r="E111" s="115"/>
-      <c r="F111" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="G111" s="115"/>
-      <c r="H111" s="115"/>
-      <c r="I111" s="116" t="s">
-        <v>185</v>
-      </c>
-      <c r="J111" s="117" t="s">
-        <v>16</v>
-      </c>
+      <c r="B111" s="121"/>
+      <c r="C111" s="122"/>
+      <c r="D111" s="122"/>
+      <c r="E111" s="122"/>
+      <c r="F111" s="121"/>
+      <c r="G111" s="122"/>
+      <c r="H111" s="122"/>
+      <c r="I111" s="123"/>
+      <c r="J111" s="117"/>
       <c r="K111" s="77"/>
       <c r="L111" s="77"/>
       <c r="M111" s="77"/>
       <c r="N111" s="77"/>
-      <c r="O111" s="118"/>
+      <c r="O111" s="125"/>
+      <c r="P111" s="74"/>
       <c r="X111" s="120"/>
     </row>
     <row r="112">
-      <c r="A112" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="B112" s="121"/>
-      <c r="C112" s="122"/>
-      <c r="D112" s="122"/>
-      <c r="E112" s="122"/>
-      <c r="F112" s="121"/>
-      <c r="G112" s="122"/>
-      <c r="H112" s="122"/>
-      <c r="I112" s="123"/>
-      <c r="J112" s="117"/>
-      <c r="K112" s="77"/>
-      <c r="L112" s="77"/>
-      <c r="M112" s="77"/>
-      <c r="N112" s="77"/>
-      <c r="O112" s="125"/>
-      <c r="P112" s="74"/>
-      <c r="X112" s="120"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="126"/>
-      <c r="B113" s="127"/>
-      <c r="C113" s="127"/>
-      <c r="D113" s="127"/>
-      <c r="E113" s="127"/>
-      <c r="F113" s="127"/>
-      <c r="G113" s="127"/>
-      <c r="H113" s="127"/>
-      <c r="I113" s="200"/>
-      <c r="J113" s="201"/>
-      <c r="K113" s="201"/>
-      <c r="L113" s="201"/>
-      <c r="M113" s="201"/>
-      <c r="N113" s="201"/>
-      <c r="O113" s="202"/>
-      <c r="P113" s="127"/>
-      <c r="Q113" s="127"/>
-      <c r="R113" s="127"/>
-      <c r="S113" s="127"/>
-      <c r="T113" s="127"/>
-      <c r="U113" s="127"/>
-      <c r="V113" s="127"/>
-      <c r="W113" s="127"/>
-      <c r="X113" s="131"/>
+      <c r="A112" s="126"/>
+      <c r="B112" s="127"/>
+      <c r="C112" s="127"/>
+      <c r="D112" s="127"/>
+      <c r="E112" s="127"/>
+      <c r="F112" s="127"/>
+      <c r="G112" s="127"/>
+      <c r="H112" s="127"/>
+      <c r="I112" s="200"/>
+      <c r="J112" s="201"/>
+      <c r="K112" s="201"/>
+      <c r="L112" s="201"/>
+      <c r="M112" s="201"/>
+      <c r="N112" s="201"/>
+      <c r="O112" s="202"/>
+      <c r="P112" s="127"/>
+      <c r="Q112" s="127"/>
+      <c r="R112" s="127"/>
+      <c r="S112" s="127"/>
+      <c r="T112" s="127"/>
+      <c r="U112" s="127"/>
+      <c r="V112" s="127"/>
+      <c r="W112" s="127"/>
+      <c r="X112" s="131"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="203" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="203" t="s">
-        <v>29</v>
-      </c>
+      <c r="A115" s="204" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" s="116"/>
+      <c r="C115" s="116"/>
+      <c r="G115" s="116"/>
+      <c r="K115" s="61"/>
     </row>
     <row r="116">
-      <c r="A116" s="204" t="s">
-        <v>185</v>
-      </c>
+      <c r="A116" s="205"/>
       <c r="B116" s="116"/>
       <c r="C116" s="116"/>
       <c r="G116" s="116"/>
       <c r="K116" s="61"/>
     </row>
     <row r="117">
-      <c r="A117" s="205"/>
+      <c r="A117" s="205" t="s">
+        <v>186</v>
+      </c>
       <c r="B117" s="116"/>
       <c r="C117" s="116"/>
-      <c r="G117" s="116"/>
-      <c r="K117" s="61"/>
+      <c r="G117" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="K117" s="61" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="205" t="s">
-        <v>186</v>
-      </c>
-      <c r="B118" s="116"/>
-      <c r="C118" s="116"/>
-      <c r="G118" s="116" t="s">
-        <v>187</v>
-      </c>
-      <c r="K118" s="61" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="G118" s="61" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="205" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G119" s="61" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="205" t="s">
-        <v>191</v>
-      </c>
-      <c r="G120" s="61" t="s">
         <v>192</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" s="206" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="123">
-      <c r="A123" s="206" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="116" t="s">
+      <c r="A123" s="116" t="s">
         <v>193</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" s="207" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="127">
-      <c r="A127" s="207" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="61" t="s">
+      <c r="A127" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I128" s="61" t="s">
+      <c r="I127" s="61" t="s">
         <v>194</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" s="208"/>
+      <c r="B131" s="209"/>
+      <c r="C131" s="209"/>
+      <c r="D131" s="209"/>
+      <c r="E131" s="209"/>
+      <c r="F131" s="209"/>
+      <c r="G131" s="209"/>
+      <c r="H131" s="209"/>
+      <c r="I131" s="209"/>
+      <c r="J131" s="209"/>
+      <c r="K131" s="209"/>
+      <c r="L131" s="209"/>
+      <c r="M131" s="209"/>
+      <c r="N131" s="209"/>
+      <c r="O131" s="210"/>
+      <c r="P131" s="211"/>
+      <c r="Q131" s="211"/>
+      <c r="R131" s="211"/>
+      <c r="S131" s="211"/>
+      <c r="T131" s="211"/>
+      <c r="U131" s="211"/>
+      <c r="V131" s="211"/>
+      <c r="W131" s="211"/>
+      <c r="X131" s="212"/>
+      <c r="Y131" s="213"/>
+      <c r="Z131" s="214"/>
+      <c r="AA131" s="173"/>
+    </row>
     <row r="132">
-      <c r="A132" s="208"/>
-      <c r="B132" s="209"/>
-      <c r="C132" s="209"/>
-      <c r="D132" s="209"/>
-      <c r="E132" s="209"/>
-      <c r="F132" s="209"/>
-      <c r="G132" s="209"/>
-      <c r="H132" s="209"/>
-      <c r="I132" s="209"/>
-      <c r="J132" s="209"/>
-      <c r="K132" s="209"/>
-      <c r="L132" s="209"/>
-      <c r="M132" s="209"/>
-      <c r="N132" s="209"/>
-      <c r="O132" s="210"/>
-      <c r="P132" s="211"/>
-      <c r="Q132" s="211"/>
-      <c r="R132" s="211"/>
-      <c r="S132" s="211"/>
-      <c r="T132" s="211"/>
-      <c r="U132" s="211"/>
-      <c r="V132" s="211"/>
-      <c r="W132" s="211"/>
-      <c r="X132" s="212"/>
+      <c r="A132" s="215"/>
+      <c r="B132" s="216"/>
+      <c r="C132" s="216"/>
+      <c r="D132" s="216"/>
+      <c r="E132" s="216"/>
+      <c r="F132" s="216"/>
+      <c r="G132" s="216"/>
+      <c r="H132" s="216"/>
+      <c r="I132" s="216"/>
+      <c r="J132" s="216"/>
+      <c r="K132" s="216"/>
+      <c r="L132" s="216"/>
+      <c r="M132" s="216"/>
+      <c r="N132" s="216"/>
+      <c r="O132" s="217"/>
+      <c r="P132" s="218"/>
+      <c r="Q132" s="218"/>
+      <c r="R132" s="218"/>
+      <c r="S132" s="218"/>
+      <c r="T132" s="218"/>
+      <c r="U132" s="218"/>
+      <c r="V132" s="218"/>
+      <c r="W132" s="218"/>
+      <c r="X132" s="219"/>
       <c r="Y132" s="213"/>
       <c r="Z132" s="214"/>
       <c r="AA132" s="173"/>
@@ -13411,413 +13421,394 @@
       <c r="AA134" s="173"/>
     </row>
     <row r="135">
-      <c r="A135" s="215"/>
-      <c r="B135" s="216"/>
-      <c r="C135" s="216"/>
-      <c r="D135" s="216"/>
-      <c r="E135" s="216"/>
-      <c r="F135" s="216"/>
-      <c r="G135" s="216"/>
-      <c r="H135" s="216"/>
-      <c r="I135" s="216"/>
-      <c r="J135" s="216"/>
-      <c r="K135" s="216"/>
-      <c r="L135" s="216"/>
-      <c r="M135" s="216"/>
-      <c r="N135" s="216"/>
-      <c r="O135" s="217"/>
-      <c r="P135" s="218"/>
-      <c r="Q135" s="218"/>
-      <c r="R135" s="218"/>
-      <c r="S135" s="218"/>
-      <c r="T135" s="218"/>
-      <c r="U135" s="218"/>
-      <c r="V135" s="218"/>
-      <c r="W135" s="218"/>
-      <c r="X135" s="219"/>
+      <c r="A135" s="220"/>
+      <c r="B135" s="221" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" s="222"/>
+      <c r="D135" s="222"/>
+      <c r="E135" s="222"/>
+      <c r="F135" s="222"/>
+      <c r="G135" s="222"/>
+      <c r="H135" s="222"/>
+      <c r="I135" s="222"/>
+      <c r="J135" s="222"/>
+      <c r="K135" s="222"/>
+      <c r="L135" s="222"/>
+      <c r="M135" s="222"/>
+      <c r="N135" s="222"/>
+      <c r="O135" s="223"/>
+      <c r="P135" s="224"/>
+      <c r="Q135" s="224"/>
+      <c r="R135" s="224"/>
+      <c r="S135" s="224"/>
+      <c r="T135" s="224"/>
+      <c r="U135" s="224"/>
+      <c r="V135" s="224"/>
+      <c r="W135" s="224"/>
+      <c r="X135" s="225"/>
       <c r="Y135" s="213"/>
       <c r="Z135" s="214"/>
       <c r="AA135" s="173"/>
     </row>
     <row r="136">
-      <c r="A136" s="220"/>
-      <c r="B136" s="221" t="s">
-        <v>36</v>
-      </c>
-      <c r="C136" s="222"/>
-      <c r="D136" s="222"/>
-      <c r="E136" s="222"/>
-      <c r="F136" s="222"/>
-      <c r="G136" s="222"/>
-      <c r="H136" s="222"/>
-      <c r="I136" s="222"/>
-      <c r="J136" s="222"/>
-      <c r="K136" s="222"/>
-      <c r="L136" s="222"/>
-      <c r="M136" s="222"/>
-      <c r="N136" s="222"/>
-      <c r="O136" s="223"/>
-      <c r="P136" s="224"/>
-      <c r="Q136" s="224"/>
-      <c r="R136" s="224"/>
-      <c r="S136" s="224"/>
-      <c r="T136" s="224"/>
-      <c r="U136" s="224"/>
-      <c r="V136" s="224"/>
-      <c r="W136" s="224"/>
-      <c r="X136" s="225"/>
+      <c r="A136" s="226" t="s">
+        <v>37</v>
+      </c>
+      <c r="B136" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H136" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I136" s="64"/>
+      <c r="J136" s="66"/>
+      <c r="K136" s="66"/>
+      <c r="L136" s="67"/>
+      <c r="M136" s="66"/>
+      <c r="N136" s="66"/>
+      <c r="O136" s="68"/>
+      <c r="P136" s="68"/>
+      <c r="Q136" s="68"/>
+      <c r="R136" s="68"/>
+      <c r="S136" s="68"/>
+      <c r="T136" s="68"/>
+      <c r="U136" s="68"/>
+      <c r="V136" s="68"/>
+      <c r="W136" s="68"/>
+      <c r="X136" s="69"/>
       <c r="Y136" s="213"/>
       <c r="Z136" s="214"/>
       <c r="AA136" s="173"/>
     </row>
     <row r="137">
-      <c r="A137" s="226" t="s">
-        <v>37</v>
-      </c>
-      <c r="B137" s="227" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D137" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E137" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="F137" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="G137" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="H137" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="I137" s="64"/>
-      <c r="J137" s="66"/>
-      <c r="K137" s="66"/>
-      <c r="L137" s="67"/>
-      <c r="M137" s="66"/>
-      <c r="N137" s="66"/>
-      <c r="O137" s="68"/>
-      <c r="P137" s="68"/>
-      <c r="Q137" s="68"/>
-      <c r="R137" s="68"/>
-      <c r="S137" s="68"/>
-      <c r="T137" s="68"/>
-      <c r="U137" s="68"/>
-      <c r="V137" s="68"/>
-      <c r="W137" s="68"/>
-      <c r="X137" s="69"/>
-      <c r="Y137" s="213"/>
-      <c r="Z137" s="214"/>
-      <c r="AA137" s="173"/>
+      <c r="A137" s="228" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" s="75"/>
+      <c r="G137" s="75"/>
+      <c r="H137" s="71"/>
+      <c r="I137" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" s="77"/>
+      <c r="K137" s="77"/>
+      <c r="L137" s="77"/>
+      <c r="M137" s="77"/>
+      <c r="N137" s="77"/>
+      <c r="O137" s="78"/>
+      <c r="P137" s="78"/>
+      <c r="Q137" s="78"/>
+      <c r="R137" s="78"/>
+      <c r="S137" s="78"/>
+      <c r="T137" s="78"/>
+      <c r="U137" s="78"/>
+      <c r="V137" s="78"/>
+      <c r="W137" s="78"/>
+      <c r="X137" s="79"/>
+      <c r="Y137" s="229"/>
+      <c r="Z137" s="230"/>
+      <c r="AA137" s="132"/>
     </row>
     <row r="138">
-      <c r="A138" s="228" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D138" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="F138" s="75"/>
-      <c r="G138" s="75"/>
-      <c r="H138" s="71"/>
-      <c r="I138" s="76" t="s">
-        <v>16</v>
-      </c>
+      <c r="A138" s="80"/>
+      <c r="B138" s="81"/>
+      <c r="C138" s="81"/>
+      <c r="D138" s="81"/>
+      <c r="E138" s="81"/>
+      <c r="F138" s="82"/>
+      <c r="G138" s="71"/>
+      <c r="H138" s="82"/>
+      <c r="I138" s="83"/>
       <c r="J138" s="77"/>
       <c r="K138" s="77"/>
       <c r="L138" s="77"/>
       <c r="M138" s="77"/>
       <c r="N138" s="77"/>
-      <c r="O138" s="78"/>
-      <c r="P138" s="78"/>
-      <c r="Q138" s="78"/>
-      <c r="R138" s="78"/>
-      <c r="S138" s="78"/>
-      <c r="T138" s="78"/>
-      <c r="U138" s="78"/>
-      <c r="V138" s="78"/>
-      <c r="W138" s="78"/>
-      <c r="X138" s="79"/>
-      <c r="Y138" s="229"/>
-      <c r="Z138" s="230"/>
-      <c r="AA138" s="132"/>
+      <c r="O138" s="84"/>
+      <c r="P138" s="84"/>
+      <c r="Q138" s="84"/>
+      <c r="R138" s="84"/>
+      <c r="S138" s="84"/>
+      <c r="T138" s="84"/>
+      <c r="U138" s="84"/>
+      <c r="V138" s="84"/>
+      <c r="W138" s="84"/>
+      <c r="X138" s="85"/>
+      <c r="Y138" s="213"/>
+      <c r="Z138" s="214"/>
+      <c r="AA138" s="173"/>
     </row>
     <row r="139">
       <c r="A139" s="80"/>
-      <c r="B139" s="81"/>
-      <c r="C139" s="81"/>
-      <c r="D139" s="81"/>
-      <c r="E139" s="81"/>
-      <c r="F139" s="82"/>
-      <c r="G139" s="71"/>
-      <c r="H139" s="82"/>
-      <c r="I139" s="83"/>
+      <c r="B139" s="86"/>
+      <c r="C139" s="86"/>
+      <c r="D139" s="86"/>
+      <c r="E139" s="86"/>
+      <c r="F139" s="86"/>
+      <c r="G139" s="81"/>
+      <c r="H139" s="81"/>
+      <c r="I139" s="87"/>
       <c r="J139" s="77"/>
       <c r="K139" s="77"/>
       <c r="L139" s="77"/>
       <c r="M139" s="77"/>
       <c r="N139" s="77"/>
-      <c r="O139" s="84"/>
-      <c r="P139" s="84"/>
-      <c r="Q139" s="84"/>
-      <c r="R139" s="84"/>
-      <c r="S139" s="84"/>
-      <c r="T139" s="84"/>
-      <c r="U139" s="84"/>
-      <c r="V139" s="84"/>
-      <c r="W139" s="84"/>
-      <c r="X139" s="85"/>
-      <c r="Y139" s="213"/>
-      <c r="Z139" s="214"/>
-      <c r="AA139" s="173"/>
+      <c r="O139" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="P139" s="89"/>
+      <c r="Q139" s="89"/>
+      <c r="R139" s="89"/>
+      <c r="S139" s="89"/>
+      <c r="T139" s="89"/>
+      <c r="U139" s="89"/>
+      <c r="V139" s="90"/>
+      <c r="W139" s="90"/>
+      <c r="X139" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y139" s="229"/>
+      <c r="Z139" s="230"/>
+      <c r="AA139" s="132"/>
     </row>
     <row r="140">
       <c r="A140" s="80"/>
-      <c r="B140" s="86"/>
-      <c r="C140" s="86"/>
-      <c r="D140" s="86"/>
-      <c r="E140" s="86"/>
-      <c r="F140" s="86"/>
-      <c r="G140" s="81"/>
-      <c r="H140" s="81"/>
-      <c r="I140" s="87"/>
+      <c r="B140" s="92"/>
+      <c r="C140" s="92"/>
+      <c r="D140" s="92"/>
+      <c r="E140" s="92"/>
+      <c r="F140" s="92"/>
+      <c r="G140" s="93"/>
+      <c r="H140" s="93"/>
+      <c r="I140" s="94"/>
       <c r="J140" s="77"/>
       <c r="K140" s="77"/>
       <c r="L140" s="77"/>
       <c r="M140" s="77"/>
       <c r="N140" s="77"/>
-      <c r="O140" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="P140" s="89"/>
-      <c r="Q140" s="89"/>
-      <c r="R140" s="89"/>
-      <c r="S140" s="89"/>
-      <c r="T140" s="89"/>
-      <c r="U140" s="89"/>
-      <c r="V140" s="90"/>
-      <c r="W140" s="90"/>
-      <c r="X140" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y140" s="229"/>
-      <c r="Z140" s="230"/>
-      <c r="AA140" s="132"/>
+      <c r="O140" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="P140" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q140" s="192"/>
+      <c r="R140" s="96"/>
+      <c r="S140" s="98"/>
+      <c r="T140" s="98"/>
+      <c r="U140" s="98"/>
+      <c r="V140" s="98"/>
+      <c r="W140" s="98"/>
+      <c r="X140" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y140" s="213"/>
+      <c r="Z140" s="214"/>
+      <c r="AA140" s="173"/>
     </row>
     <row r="141">
-      <c r="A141" s="80"/>
-      <c r="B141" s="92"/>
-      <c r="C141" s="92"/>
-      <c r="D141" s="92"/>
-      <c r="E141" s="92"/>
-      <c r="F141" s="92"/>
-      <c r="G141" s="93"/>
-      <c r="H141" s="93"/>
-      <c r="I141" s="94"/>
-      <c r="J141" s="77"/>
-      <c r="K141" s="77"/>
-      <c r="L141" s="77"/>
-      <c r="M141" s="77"/>
-      <c r="N141" s="77"/>
-      <c r="O141" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="P141" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q141" s="192"/>
-      <c r="R141" s="96"/>
-      <c r="S141" s="98"/>
-      <c r="T141" s="98"/>
-      <c r="U141" s="98"/>
-      <c r="V141" s="98"/>
-      <c r="W141" s="98"/>
-      <c r="X141" s="99" t="s">
-        <v>21</v>
+      <c r="A141" s="100"/>
+      <c r="B141" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="I141" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="J141" s="106"/>
+      <c r="K141" s="106"/>
+      <c r="L141" s="106"/>
+      <c r="M141" s="106"/>
+      <c r="N141" s="107"/>
+      <c r="O141" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="P141" s="109"/>
+      <c r="Q141" s="110"/>
+      <c r="R141" s="111"/>
+      <c r="S141" s="111"/>
+      <c r="T141" s="111"/>
+      <c r="U141" s="111"/>
+      <c r="V141" s="111"/>
+      <c r="W141" s="111"/>
+      <c r="X141" s="112" t="s">
+        <v>30</v>
       </c>
       <c r="Y141" s="213"/>
       <c r="Z141" s="214"/>
       <c r="AA141" s="173"/>
     </row>
     <row r="142">
-      <c r="A142" s="100"/>
-      <c r="B142" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="C142" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="D142" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="E142" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="F142" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="H142" s="102" t="s">
-        <v>195</v>
-      </c>
-      <c r="I142" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="J142" s="106"/>
-      <c r="K142" s="106"/>
-      <c r="L142" s="106"/>
-      <c r="M142" s="106"/>
-      <c r="N142" s="107"/>
-      <c r="O142" s="108" t="s">
+      <c r="A142" s="113"/>
+      <c r="B142" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142" s="115"/>
+      <c r="D142" s="115"/>
+      <c r="E142" s="115"/>
+      <c r="F142" s="114">
+        <v>200.0</v>
+      </c>
+      <c r="G142" s="114"/>
+      <c r="H142" s="115"/>
+      <c r="I142" s="231" t="s">
+        <v>44</v>
+      </c>
+      <c r="J142" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="K142" s="77"/>
+      <c r="L142" s="77"/>
+      <c r="M142" s="77"/>
+      <c r="N142" s="77"/>
+      <c r="O142" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="P142" s="109"/>
-      <c r="Q142" s="110"/>
-      <c r="R142" s="111"/>
-      <c r="S142" s="111"/>
-      <c r="T142" s="111"/>
-      <c r="U142" s="111"/>
-      <c r="V142" s="111"/>
-      <c r="W142" s="111"/>
-      <c r="X142" s="112" t="s">
-        <v>30</v>
-      </c>
+      <c r="X142" s="120"/>
       <c r="Y142" s="213"/>
       <c r="Z142" s="214"/>
       <c r="AA142" s="173"/>
     </row>
     <row r="143">
-      <c r="A143" s="113"/>
-      <c r="B143" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="C143" s="115"/>
-      <c r="D143" s="115"/>
-      <c r="E143" s="115"/>
-      <c r="F143" s="114">
-        <v>200.0</v>
-      </c>
-      <c r="G143" s="114"/>
-      <c r="H143" s="115"/>
-      <c r="I143" s="231" t="s">
-        <v>44</v>
-      </c>
-      <c r="J143" s="117" t="s">
-        <v>16</v>
-      </c>
+      <c r="A143" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" s="132"/>
+      <c r="C143" s="173"/>
+      <c r="D143" s="173"/>
+      <c r="E143" s="173"/>
+      <c r="F143" s="132"/>
+      <c r="G143" s="132"/>
+      <c r="H143" s="173"/>
+      <c r="I143" s="132"/>
+      <c r="J143" s="117"/>
       <c r="K143" s="77"/>
       <c r="L143" s="77"/>
       <c r="M143" s="77"/>
       <c r="N143" s="77"/>
-      <c r="O143" s="118" t="s">
-        <v>42</v>
-      </c>
+      <c r="O143" s="54"/>
       <c r="X143" s="120"/>
       <c r="Y143" s="213"/>
       <c r="Z143" s="214"/>
       <c r="AA143" s="173"/>
     </row>
     <row r="144">
-      <c r="A144" s="232" t="s">
-        <v>20</v>
-      </c>
-      <c r="B144" s="132"/>
-      <c r="C144" s="173"/>
-      <c r="D144" s="173"/>
-      <c r="E144" s="173"/>
-      <c r="F144" s="132"/>
-      <c r="G144" s="132"/>
-      <c r="H144" s="173"/>
-      <c r="I144" s="132"/>
-      <c r="J144" s="117"/>
-      <c r="K144" s="77"/>
-      <c r="L144" s="77"/>
-      <c r="M144" s="77"/>
-      <c r="N144" s="77"/>
-      <c r="O144" s="54"/>
-      <c r="X144" s="120"/>
+      <c r="A144" s="233"/>
+      <c r="B144" s="234"/>
+      <c r="C144" s="127"/>
+      <c r="D144" s="127"/>
+      <c r="E144" s="127"/>
+      <c r="F144" s="127"/>
+      <c r="G144" s="127"/>
+      <c r="H144" s="127"/>
+      <c r="I144" s="200"/>
+      <c r="J144" s="201"/>
+      <c r="K144" s="201"/>
+      <c r="L144" s="201"/>
+      <c r="M144" s="201"/>
+      <c r="N144" s="201"/>
+      <c r="O144" s="202"/>
+      <c r="P144" s="127"/>
+      <c r="Q144" s="127"/>
+      <c r="R144" s="127"/>
+      <c r="S144" s="127"/>
+      <c r="T144" s="127"/>
+      <c r="U144" s="127"/>
+      <c r="V144" s="127"/>
+      <c r="W144" s="127"/>
+      <c r="X144" s="131"/>
       <c r="Y144" s="213"/>
       <c r="Z144" s="214"/>
       <c r="AA144" s="173"/>
     </row>
-    <row r="145">
-      <c r="A145" s="233"/>
-      <c r="B145" s="234"/>
-      <c r="C145" s="127"/>
-      <c r="D145" s="127"/>
-      <c r="E145" s="127"/>
-      <c r="F145" s="127"/>
-      <c r="G145" s="127"/>
-      <c r="H145" s="127"/>
-      <c r="I145" s="200"/>
-      <c r="J145" s="201"/>
-      <c r="K145" s="201"/>
-      <c r="L145" s="201"/>
-      <c r="M145" s="201"/>
-      <c r="N145" s="201"/>
-      <c r="O145" s="202"/>
-      <c r="P145" s="127"/>
-      <c r="Q145" s="127"/>
-      <c r="R145" s="127"/>
-      <c r="S145" s="127"/>
-      <c r="T145" s="127"/>
-      <c r="U145" s="127"/>
-      <c r="V145" s="127"/>
-      <c r="W145" s="127"/>
-      <c r="X145" s="131"/>
-      <c r="Y145" s="213"/>
-      <c r="Z145" s="214"/>
-      <c r="AA145" s="173"/>
+    <row r="163">
+      <c r="A163" s="235" t="s">
+        <v>196</v>
+      </c>
+      <c r="B163" s="236"/>
+      <c r="C163" s="236"/>
+      <c r="D163" s="237" t="s">
+        <v>197</v>
+      </c>
+      <c r="E163" s="238"/>
+      <c r="F163" s="239" t="s">
+        <v>198</v>
+      </c>
+      <c r="G163" s="240"/>
+      <c r="H163" s="240"/>
+      <c r="I163" s="240"/>
+      <c r="J163" s="241"/>
+      <c r="K163" s="241"/>
+      <c r="L163" s="241"/>
     </row>
     <row r="164">
-      <c r="A164" s="235" t="s">
-        <v>196</v>
-      </c>
-      <c r="B164" s="236"/>
-      <c r="C164" s="236"/>
-      <c r="D164" s="237" t="s">
-        <v>197</v>
-      </c>
-      <c r="E164" s="238"/>
-      <c r="F164" s="239" t="s">
-        <v>198</v>
-      </c>
-      <c r="G164" s="240"/>
-      <c r="H164" s="240"/>
-      <c r="I164" s="240"/>
-      <c r="J164" s="241"/>
-      <c r="K164" s="241"/>
-      <c r="L164" s="241"/>
+      <c r="A164" s="242" t="s">
+        <v>199</v>
+      </c>
+      <c r="B164" s="243"/>
+      <c r="C164" s="243"/>
+      <c r="D164" s="244" t="s">
+        <v>200</v>
+      </c>
+      <c r="E164" s="245"/>
+      <c r="F164" s="246" t="s">
+        <v>201</v>
+      </c>
+      <c r="G164" s="247"/>
+      <c r="H164" s="247"/>
+      <c r="I164" s="247"/>
+      <c r="J164" s="247"/>
+      <c r="K164" s="247"/>
+      <c r="L164" s="247"/>
     </row>
     <row r="165">
-      <c r="A165" s="242" t="s">
-        <v>199</v>
-      </c>
-      <c r="B165" s="243"/>
-      <c r="C165" s="243"/>
-      <c r="D165" s="244" t="s">
-        <v>200</v>
-      </c>
       <c r="E165" s="245"/>
-      <c r="F165" s="246" t="s">
-        <v>201</v>
-      </c>
+      <c r="F165" s="247"/>
       <c r="G165" s="247"/>
       <c r="H165" s="247"/>
       <c r="I165" s="247"/>
@@ -13827,70 +13818,72 @@
     </row>
     <row r="166">
       <c r="E166" s="245"/>
-      <c r="F166" s="247"/>
-      <c r="G166" s="247"/>
-      <c r="H166" s="247"/>
-      <c r="I166" s="247"/>
-      <c r="J166" s="247"/>
-      <c r="K166" s="247"/>
-      <c r="L166" s="247"/>
+      <c r="F166" s="248" t="s">
+        <v>202</v>
+      </c>
+      <c r="G166" s="249"/>
+      <c r="H166" s="248" t="s">
+        <v>203</v>
+      </c>
+      <c r="I166" s="250"/>
+      <c r="J166" s="249"/>
+      <c r="K166" s="249"/>
+      <c r="L166" s="249"/>
     </row>
     <row r="167">
       <c r="E167" s="245"/>
-      <c r="F167" s="248" t="s">
-        <v>202</v>
-      </c>
-      <c r="G167" s="249"/>
-      <c r="H167" s="248" t="s">
-        <v>203</v>
-      </c>
-      <c r="I167" s="250"/>
-      <c r="J167" s="249"/>
-      <c r="K167" s="249"/>
-      <c r="L167" s="249"/>
+      <c r="F167" s="247"/>
+      <c r="G167" s="247"/>
+      <c r="H167" s="246" t="s">
+        <v>204</v>
+      </c>
+      <c r="I167" s="251"/>
+      <c r="J167" s="251"/>
+      <c r="K167" s="251"/>
+      <c r="L167" s="251"/>
     </row>
     <row r="168">
       <c r="E168" s="245"/>
-      <c r="F168" s="247"/>
-      <c r="G168" s="247"/>
-      <c r="H168" s="246" t="s">
-        <v>204</v>
-      </c>
-      <c r="I168" s="251"/>
-      <c r="J168" s="251"/>
-      <c r="K168" s="251"/>
-      <c r="L168" s="251"/>
+      <c r="F168" s="243"/>
+      <c r="G168" s="243"/>
+      <c r="H168" s="252" t="s">
+        <v>205</v>
+      </c>
+      <c r="I168" s="253"/>
+      <c r="J168" s="253"/>
+      <c r="K168" s="253"/>
+      <c r="L168" s="243"/>
     </row>
     <row r="169">
       <c r="E169" s="245"/>
       <c r="F169" s="243"/>
       <c r="G169" s="243"/>
-      <c r="H169" s="252" t="s">
-        <v>205</v>
+      <c r="H169" s="254" t="s">
+        <v>206</v>
       </c>
       <c r="I169" s="253"/>
-      <c r="J169" s="253"/>
-      <c r="K169" s="253"/>
+      <c r="J169" s="243"/>
+      <c r="K169" s="243"/>
       <c r="L169" s="243"/>
     </row>
     <row r="170">
       <c r="E170" s="245"/>
-      <c r="F170" s="243"/>
-      <c r="G170" s="243"/>
-      <c r="H170" s="254" t="s">
-        <v>206</v>
-      </c>
-      <c r="I170" s="253"/>
+      <c r="F170" s="255" t="s">
+        <v>207</v>
+      </c>
+      <c r="G170" s="253"/>
+      <c r="H170" s="243"/>
+      <c r="I170" s="243"/>
       <c r="J170" s="243"/>
       <c r="K170" s="243"/>
       <c r="L170" s="243"/>
     </row>
     <row r="171">
       <c r="E171" s="245"/>
-      <c r="F171" s="255" t="s">
-        <v>207</v>
-      </c>
-      <c r="G171" s="253"/>
+      <c r="F171" s="256" t="s">
+        <v>208</v>
+      </c>
+      <c r="G171" s="247"/>
       <c r="H171" s="243"/>
       <c r="I171" s="243"/>
       <c r="J171" s="243"/>
@@ -13899,8 +13892,8 @@
     </row>
     <row r="172">
       <c r="E172" s="245"/>
-      <c r="F172" s="256" t="s">
-        <v>208</v>
+      <c r="F172" s="257" t="s">
+        <v>209</v>
       </c>
       <c r="G172" s="247"/>
       <c r="H172" s="243"/>
@@ -13911,8 +13904,8 @@
     </row>
     <row r="173">
       <c r="E173" s="245"/>
-      <c r="F173" s="257" t="s">
-        <v>209</v>
+      <c r="F173" s="258" t="s">
+        <v>210</v>
       </c>
       <c r="G173" s="247"/>
       <c r="H173" s="243"/>
@@ -13923,9 +13916,7 @@
     </row>
     <row r="174">
       <c r="E174" s="245"/>
-      <c r="F174" s="258" t="s">
-        <v>210</v>
-      </c>
+      <c r="F174" s="247"/>
       <c r="G174" s="247"/>
       <c r="H174" s="243"/>
       <c r="I174" s="243"/>
@@ -13935,18 +13926,20 @@
     </row>
     <row r="175">
       <c r="E175" s="245"/>
-      <c r="F175" s="247"/>
+      <c r="F175" s="247" t="s">
+        <v>211</v>
+      </c>
       <c r="G175" s="247"/>
-      <c r="H175" s="243"/>
-      <c r="I175" s="243"/>
-      <c r="J175" s="243"/>
-      <c r="K175" s="243"/>
-      <c r="L175" s="243"/>
+      <c r="H175" s="247"/>
+      <c r="I175" s="247"/>
+      <c r="J175" s="247"/>
+      <c r="K175" s="247"/>
+      <c r="L175" s="247"/>
     </row>
     <row r="176">
       <c r="E176" s="245"/>
-      <c r="F176" s="247" t="s">
-        <v>211</v>
+      <c r="F176" s="259" t="s">
+        <v>212</v>
       </c>
       <c r="G176" s="247"/>
       <c r="H176" s="247"/>
@@ -13957,11 +13950,11 @@
     </row>
     <row r="177">
       <c r="E177" s="245"/>
-      <c r="F177" s="259" t="s">
-        <v>212</v>
-      </c>
-      <c r="G177" s="247"/>
-      <c r="H177" s="247"/>
+      <c r="F177" s="260" t="s">
+        <v>213</v>
+      </c>
+      <c r="G177" s="251"/>
+      <c r="H177" s="251"/>
       <c r="I177" s="247"/>
       <c r="J177" s="247"/>
       <c r="K177" s="247"/>
@@ -13969,11 +13962,9 @@
     </row>
     <row r="178">
       <c r="E178" s="245"/>
-      <c r="F178" s="260" t="s">
-        <v>213</v>
-      </c>
-      <c r="G178" s="251"/>
-      <c r="H178" s="251"/>
+      <c r="F178" s="247"/>
+      <c r="G178" s="247"/>
+      <c r="H178" s="247"/>
       <c r="I178" s="247"/>
       <c r="J178" s="247"/>
       <c r="K178" s="247"/>
@@ -14001,8 +13992,10 @@
     </row>
     <row r="181">
       <c r="E181" s="245"/>
-      <c r="F181" s="247"/>
-      <c r="G181" s="247"/>
+      <c r="F181" s="246" t="s">
+        <v>214</v>
+      </c>
+      <c r="G181" s="251"/>
       <c r="H181" s="247"/>
       <c r="I181" s="247"/>
       <c r="J181" s="247"/>
@@ -14012,9 +14005,9 @@
     <row r="182">
       <c r="E182" s="245"/>
       <c r="F182" s="246" t="s">
-        <v>214</v>
-      </c>
-      <c r="G182" s="251"/>
+        <v>215</v>
+      </c>
+      <c r="G182" s="247"/>
       <c r="H182" s="247"/>
       <c r="I182" s="247"/>
       <c r="J182" s="247"/>
@@ -14023,9 +14016,7 @@
     </row>
     <row r="183">
       <c r="E183" s="245"/>
-      <c r="F183" s="246" t="s">
-        <v>215</v>
-      </c>
+      <c r="F183" s="247"/>
       <c r="G183" s="247"/>
       <c r="H183" s="247"/>
       <c r="I183" s="247"/>
@@ -14055,21 +14046,23 @@
     </row>
     <row r="186">
       <c r="E186" s="245"/>
-      <c r="F186" s="247"/>
-      <c r="G186" s="247"/>
-      <c r="H186" s="247"/>
-      <c r="I186" s="247"/>
-      <c r="J186" s="247"/>
-      <c r="K186" s="247"/>
+      <c r="F186" s="261" t="s">
+        <v>216</v>
+      </c>
+      <c r="G186" s="262"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="263"/>
       <c r="L186" s="247"/>
     </row>
     <row r="187">
       <c r="E187" s="245"/>
-      <c r="F187" s="261" t="s">
-        <v>216</v>
+      <c r="F187" s="264" t="s">
+        <v>15</v>
       </c>
       <c r="G187" s="262"/>
-      <c r="H187" s="6"/>
+      <c r="H187" s="262"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
       <c r="K187" s="263"/>
@@ -14077,11 +14070,9 @@
     </row>
     <row r="188">
       <c r="E188" s="245"/>
-      <c r="F188" s="264" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" s="262"/>
-      <c r="H188" s="262"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
       <c r="K188" s="263"/>
@@ -14089,7 +14080,9 @@
     </row>
     <row r="189">
       <c r="E189" s="245"/>
-      <c r="F189" s="6"/>
+      <c r="F189" s="265" t="s">
+        <v>217</v>
+      </c>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
@@ -14099,25 +14092,23 @@
     </row>
     <row r="190">
       <c r="E190" s="245"/>
-      <c r="F190" s="265" t="s">
-        <v>217</v>
-      </c>
-      <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
-      <c r="K190" s="263"/>
+      <c r="F190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G190" s="181" t="s">
+        <v>218</v>
+      </c>
+      <c r="H190" s="266"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="267"/>
       <c r="L190" s="247"/>
     </row>
     <row r="191">
       <c r="E191" s="245"/>
-      <c r="F191" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G191" s="181" t="s">
-        <v>218</v>
-      </c>
-      <c r="H191" s="266"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="267"/>
@@ -14135,407 +14126,397 @@
     </row>
     <row r="193">
       <c r="E193" s="245"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
-      <c r="K193" s="267"/>
+      <c r="F193" s="268" t="s">
+        <v>219</v>
+      </c>
+      <c r="G193" s="20"/>
+      <c r="H193" s="269" t="s">
+        <v>220</v>
+      </c>
+      <c r="I193" s="20"/>
+      <c r="J193" s="20"/>
+      <c r="K193" s="270"/>
       <c r="L193" s="247"/>
     </row>
     <row r="194">
       <c r="E194" s="245"/>
-      <c r="F194" s="268" t="s">
-        <v>219</v>
-      </c>
-      <c r="G194" s="20"/>
-      <c r="H194" s="269" t="s">
-        <v>220</v>
-      </c>
-      <c r="I194" s="20"/>
-      <c r="J194" s="20"/>
-      <c r="K194" s="270"/>
+      <c r="F194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G194" s="1"/>
+      <c r="H194" s="181" t="s">
+        <v>221</v>
+      </c>
+      <c r="I194" s="266"/>
+      <c r="J194" s="266"/>
+      <c r="K194" s="267"/>
       <c r="L194" s="247"/>
     </row>
     <row r="195">
       <c r="E195" s="245"/>
-      <c r="F195" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="266" t="s">
+        <v>222</v>
+      </c>
       <c r="H195" s="181" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I195" s="266"/>
       <c r="J195" s="266"/>
       <c r="K195" s="267"/>
       <c r="L195" s="247"/>
     </row>
-    <row r="196">
-      <c r="E196" s="245"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="266" t="s">
-        <v>222</v>
-      </c>
-      <c r="H196" s="181" t="s">
-        <v>223</v>
-      </c>
-      <c r="I196" s="266"/>
-      <c r="J196" s="266"/>
-      <c r="K196" s="267"/>
-      <c r="L196" s="247"/>
+    <row r="205">
+      <c r="A205" s="271"/>
+      <c r="B205" s="272" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" s="271"/>
-      <c r="B206" s="272" t="s">
-        <v>224</v>
+      <c r="A206" s="273" t="s">
+        <v>225</v>
+      </c>
+      <c r="B206" s="274" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="273" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B207" s="274" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="273" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B208" s="274" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="273" t="s">
-        <v>229</v>
-      </c>
-      <c r="B209" s="274" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="B209" s="275" t="str">
+        <f>HYPERLINK("https://westernunion.atlassian.net/browse/JO-1","Jordan")</f>
+        <v>Jordan</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="273" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210" s="275" t="str">
-        <f>HYPERLINK("https://westernunion.atlassian.net/browse/JO-1","Jordan")</f>
-        <v>Jordan</v>
+        <f>HYPERLINK("https://westernunion.atlassian.net/browse/KZ-1","Kazakhstan")</f>
+        <v>Kazakhstan</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="273" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211" s="275" t="str">
-        <f>HYPERLINK("https://westernunion.atlassian.net/browse/KZ-1","Kazakhstan")</f>
-        <v>Kazakhstan</v>
+        <f>HYPERLINK("https://kenya.pi.wuamerigo.com/bank_client.html","Kenya")</f>
+        <v>Kenya</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="273" t="s">
-        <v>233</v>
-      </c>
-      <c r="B212" s="275" t="str">
-        <f>HYPERLINK("https://kenya.pi.wuamerigo.com/bank_client.html","Kenya")</f>
-        <v>Kenya</v>
+        <v>234</v>
+      </c>
+      <c r="B212" s="274" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="273" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B213" s="274" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="273" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B214" s="274" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="273" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B215" s="274" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="273" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B216" s="274" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="273" t="s">
-        <v>242</v>
-      </c>
-      <c r="B217" s="274" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="B217" s="275" t="str">
+        <f>HYPERLINK("https://westernunion.atlassian.net/browse/AMD-1","Moldova")</f>
+        <v>Moldova</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="273" t="s">
-        <v>244</v>
-      </c>
-      <c r="B218" s="275" t="str">
-        <f>HYPERLINK("https://westernunion.atlassian.net/browse/AMD-1","Moldova")</f>
-        <v>Moldova</v>
+        <v>245</v>
+      </c>
+      <c r="B218" s="274" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="273" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B219" s="274" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="273" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B220" s="274" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="273" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B221" s="274" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="273" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B222" s="274" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="273" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B223" s="274" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="273" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B224" s="274" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="273" t="s">
-        <v>257</v>
-      </c>
-      <c r="B225" s="274" t="s">
-        <v>258</v>
+      <c r="A225" s="276" t="s">
+        <v>259</v>
+      </c>
+      <c r="B225" s="277" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="276" t="s">
-        <v>259</v>
-      </c>
-      <c r="B226" s="277" t="s">
-        <v>260</v>
+      <c r="A226" s="273" t="s">
+        <v>261</v>
+      </c>
+      <c r="B226" s="274" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="273" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B227" s="274" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="273" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B228" s="274" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="273" t="s">
-        <v>265</v>
-      </c>
-      <c r="B229" s="274" t="s">
-        <v>266</v>
+        <v>267</v>
+      </c>
+      <c r="B229" s="275" t="str">
+        <f>HYPERLINK("https://westernunion.atlassian.net/browse/RS-1","Serbia")</f>
+        <v>Serbia</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="273" t="s">
-        <v>267</v>
-      </c>
-      <c r="B230" s="275" t="str">
-        <f>HYPERLINK("https://westernunion.atlassian.net/browse/RS-1","Serbia")</f>
-        <v>Serbia</v>
+        <v>268</v>
+      </c>
+      <c r="B230" s="274" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="273" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B231" s="274" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="273" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B232" s="274" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="273" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B233" s="274" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="273" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B234" s="274" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="273" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B235" s="274" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="273" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B236" s="274" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="273" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B237" s="274" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="273" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B238" s="274" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="273" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B239" s="274" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="273" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B240" s="274" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="273" t="s">
-        <v>288</v>
-      </c>
-      <c r="B241" s="274" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="B241" s="275" t="str">
+        <f>HYPERLINK("https://westernunion.atlassian.net/browse/TT-1","Turks &amp; Caicos")</f>
+        <v>Turks &amp; Caicos</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="273" t="s">
-        <v>290</v>
-      </c>
-      <c r="B242" s="275" t="str">
-        <f>HYPERLINK("https://westernunion.atlassian.net/browse/TT-1","Turks &amp; Caicos")</f>
-        <v>Turks &amp; Caicos</v>
+        <v>291</v>
+      </c>
+      <c r="B242" s="274" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="273" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B243" s="274" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="273" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B244" s="274" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="273" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B245" s="274" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="273" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B246" s="274" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="273" t="s">
-        <v>299</v>
-      </c>
+      <c r="A247" s="6"/>
       <c r="B247" s="274" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="6"/>
-      <c r="B248" s="274" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B93"/>
-    <hyperlink r:id="rId2" ref="D106"/>
-    <hyperlink r:id="rId3" ref="H194"/>
+    <hyperlink r:id="rId1" ref="B92"/>
+    <hyperlink r:id="rId2" ref="D105"/>
+    <hyperlink r:id="rId3" ref="H193"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>
